--- a/fallClean/Magnitude/first-signal-fall.xlsx
+++ b/fallClean/Magnitude/first-signal-fall.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabby/Desktop/dragraceAnalysis-master/fallClean/Magnitude/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B6003-0511-6740-8AFA-7A7BA202361C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2786B79-76A5-1748-87A2-41085A1D88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="460" windowWidth="24080" windowHeight="16440" activeTab="1" xr2:uid="{A07F2C53-200F-5A4D-91BE-D2562BC0ADC5}"/>
+    <workbookView xWindow="11800" yWindow="460" windowWidth="17000" windowHeight="16420" activeTab="1" xr2:uid="{A07F2C53-200F-5A4D-91BE-D2562BC0ADC5}"/>
   </bookViews>
   <sheets>
     <sheet name="XZ" sheetId="1" r:id="rId1"/>
     <sheet name="YZ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="72">
-  <si>
-    <t>TF_Q3_H3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="73">
   <si>
     <t>FL</t>
   </si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>FALL Funny Car Q4 Heat 8</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FALL Funny Car Q4 Heat 6</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -441,12 +444,6 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,14 +451,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +497,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E87842A-7D91-7A42-86A3-06C996A6787A}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:L101"/>
+    <sheetView topLeftCell="I30" zoomScale="63" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40:Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,298 +878,301 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="L3" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="44" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="44" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="18">
+        <v>35</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="22">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="22">
-        <v>60</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>35.799999999999997</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>(C8-C7)/(E8-E7)</f>
         <v>840.00000000004775</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="25">
         <f>F8* (1/5280) * (3600)</f>
         <v>572.72727272730526</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
         <v>330</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18">
         <v>36</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <f>(C9-C8)/(E9-E8)</f>
         <v>1349.9999999999809</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="25">
         <f>G9* (1/5280) * (3600)</f>
         <v>920.45454545453242</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="22">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
         <v>660</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="18">
         <v>36.299999999999997</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22">
         <f>(C10-C9)/(E10-E9)</f>
         <v>1100.0000000000105</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27">
+      <c r="I10" s="22"/>
+      <c r="J10" s="25">
         <f>H10* (1/5280) * (3600)</f>
         <v>750.00000000000716</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <v>287.72000000000003</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="18">
         <v>288.14999999999998</v>
       </c>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
         <v>1000</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18">
         <v>37.1</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
         <f>(C11-C10)/(E11-E10)</f>
         <v>424.99999999999773</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <f>I11* (1/5280) * (3600)</f>
         <v>289.77272727272572</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="18">
         <v>325.06</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="18">
         <v>323.35000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>22.9</v>
@@ -1147,7 +1180,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>22.9</v>
@@ -1155,13 +1188,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>22.9</v>
@@ -1169,13 +1202,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>23</v>
@@ -1191,7 +1224,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>330</v>
@@ -1210,7 +1243,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>660</v>
@@ -1233,12 +1266,12 @@
         <v>240.89</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -1261,41 +1294,41 @@
         <v>249.53</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
       <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
         <v>29</v>
       </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>18.8</v>
@@ -1303,10 +1336,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>18.8</v>
@@ -1314,13 +1347,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>18.8</v>
@@ -1328,7 +1361,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -1347,7 +1380,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>330</v>
@@ -1366,7 +1399,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>660</v>
@@ -1389,12 +1422,12 @@
         <v>287.66000000000003</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1000</v>
@@ -1417,57 +1450,57 @@
         <v>322.11</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
       <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
-        <v>30</v>
-      </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" t="s">
         <v>41</v>
-      </c>
-      <c r="L31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>51.6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>51.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1476,9 +1509,9 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -1495,9 +1528,9 @@
         <v>409.09090909090327</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>330</v>
@@ -1514,9 +1547,9 @@
         <v>920.45454545456528</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>660</v>
@@ -1539,12 +1572,12 @@
         <v>290.94</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -1567,42 +1600,116 @@
         <v>329.5</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X40" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y40" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="44" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41">
         <v>48.2</v>
       </c>
       <c r="K41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" t="s">
         <v>43</v>
       </c>
-      <c r="L41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="27"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="28"/>
+      <c r="S41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="30"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+    </row>
+    <row r="42" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="27"/>
+      <c r="O42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1610,10 +1717,30 @@
       <c r="E43">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="27"/>
+      <c r="O43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+    </row>
+    <row r="44" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>60</v>
@@ -1625,10 +1752,30 @@
         <f>(C44-C43)/(E44-E43)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="27"/>
+      <c r="O44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="18">
+        <v>-24</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+    </row>
+    <row r="45" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>330</v>
@@ -1644,10 +1791,32 @@
         <f>G45*(1/5280)*(3600)</f>
         <v>368.18181818181819</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="27"/>
+      <c r="O45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="18">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+    </row>
+    <row r="46" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>660</v>
@@ -1667,12 +1836,38 @@
         <v>282.01</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="N46" s="27"/>
+      <c r="O46" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="18">
+        <v>330</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R46" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22">
+        <f>(P46-P45)/(R46-R45)</f>
+        <v>540</v>
+      </c>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="23">
+        <f>T46*(1/5280)*(3600)</f>
+        <v>368.18181818181819</v>
+      </c>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+    </row>
+    <row r="47" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>1000</v>
@@ -1695,1035 +1890,1109 @@
         <v>328.46</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N47" s="27"/>
+      <c r="O47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="18">
+        <v>660</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="V47" s="22"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="24">
+        <v>274.05</v>
+      </c>
+      <c r="Y47" s="24">
+        <v>289.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+      <c r="N48" s="27"/>
+      <c r="O48" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="25">
+        <f>(P48-P47)/(R48-R47)</f>
+        <v>850.00000000000307</v>
+      </c>
+      <c r="W48" s="23">
+        <f>V48*(1/5280)*(3600)</f>
+        <v>579.54545454545666</v>
+      </c>
+      <c r="X48" s="24">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="Y48" s="24">
+        <v>323.5</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="F53" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="10" t="s">
+      <c r="H54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="30"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18">
+        <v>0</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="22">
+      <c r="C56" s="18">
         <v>0</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="18">
+        <v>60</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="22">
-        <v>51.2</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="22">
-        <v>0</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="22">
-        <v>51.2</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-    </row>
-    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="22">
-        <v>51.2</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-    </row>
-    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="22">
-        <v>60</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="E58" s="18">
         <v>51.8</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="21">
         <f>(C58-C57)/(E58-E57)</f>
         <v>140.00000000000134</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="27">
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23">
         <f>F58* (1/5280) * (3600)</f>
         <v>95.454545454546363</v>
       </c>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
     </row>
     <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="22">
+      <c r="A59" s="27"/>
+      <c r="B59" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="18">
         <v>330</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="D59" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="18">
         <v>52</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22">
         <f>(C59-C58)/(E59-E58)</f>
         <v>1349.9999999999809</v>
       </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="27">
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23">
         <f>G59* (1/5280) * (3600)</f>
         <v>920.45454545453242</v>
       </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
     </row>
     <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="22">
+      <c r="A60" s="27"/>
+      <c r="B60" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="18">
         <v>660</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="D60" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="18">
         <v>52.5</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22">
         <f>(C60-C59)/(E60-E59)</f>
         <v>660</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="27">
+      <c r="I60" s="22"/>
+      <c r="J60" s="23">
         <f>H60* (1/5280) * (3600)</f>
         <v>450</v>
       </c>
-      <c r="K60" s="28">
+      <c r="K60" s="24">
         <v>274.05</v>
       </c>
-      <c r="L60" s="28">
+      <c r="L60" s="24">
         <v>289.38</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="22">
+      <c r="A61" s="27"/>
+      <c r="B61" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="18">
         <v>1000</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="D61" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="18">
         <v>53.4</v>
       </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="29">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="25">
         <f>(C61-C60)/(E61-E60)</f>
         <v>377.7777777777784</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="23">
         <f>I61* (1/5280) * (3600)</f>
         <v>257.57575757575802</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="24">
         <v>312.35000000000002</v>
       </c>
-      <c r="L61" s="28">
+      <c r="L61" s="24">
         <v>323.5</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="F69" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10" t="s">
+      <c r="H70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" s="30"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="18">
+        <v>0</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="22">
+      <c r="C72" s="18">
         <v>0</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D72" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+    </row>
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+    </row>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="18">
+        <v>60</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="22">
-        <v>0</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-    </row>
-    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-    </row>
-    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="22">
-        <v>60</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="22">
+      <c r="E74" s="18">
         <v>35.799999999999997</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="21">
         <f>(C74-C73)/(E74-E73)</f>
         <v>840.00000000004775</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="27">
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="23">
         <f>F74* (1/5280) * (3600)</f>
         <v>572.72727272730526</v>
       </c>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
     </row>
     <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="22">
+      <c r="A75" s="27"/>
+      <c r="B75" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="18">
         <v>330</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="22">
+      <c r="D75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="18">
         <v>36.1</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22">
         <f>(C75-C74)/(E75-E74)</f>
         <v>899.99999999998727</v>
       </c>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="27">
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23">
         <f>G75* (1/5280) * (3600)</f>
         <v>613.63636363635499</v>
       </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="22">
+      <c r="A76" s="27"/>
+      <c r="B76" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="18">
         <v>660</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E76" s="22">
+      <c r="D76" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="18">
         <v>36.299999999999997</v>
       </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22">
         <f>(C76-C75)/(E76-E75)</f>
         <v>1650.0000000000352</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="27">
+      <c r="I76" s="22"/>
+      <c r="J76" s="23">
         <f>H76* (1/5280) * (3600)</f>
         <v>1125.0000000000239</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K76" s="24">
         <v>287.72000000000003</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L76" s="24">
         <v>288.14999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="22">
+      <c r="A77" s="27"/>
+      <c r="B77" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="18">
         <v>1000</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="22">
+      <c r="D77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="18">
         <v>37.1</v>
       </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26">
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22">
         <f>(C77-C76)/(E77-E76)</f>
         <v>424.99999999999773</v>
       </c>
-      <c r="J77" s="27">
+      <c r="J77" s="23">
         <f>I77* (1/5280) * (3600)</f>
         <v>289.77272727272572</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K77" s="24">
         <v>325.06</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="24">
         <v>323.35000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="F81" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="28"/>
+      <c r="F82" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="10" t="s">
+      <c r="H82" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" s="30"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+    </row>
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="18">
+        <v>0</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-    </row>
-    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="22">
+      <c r="C84" s="18">
         <v>0</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D84" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+    </row>
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+    </row>
+    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="18">
+        <v>60</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L83" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="22">
-        <v>0</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-    </row>
-    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-    </row>
-    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="22">
-        <v>60</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="22">
+      <c r="E86" s="18">
         <v>35.799999999999997</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F86" s="21">
         <f>(C86-C85)/(E86-E85)</f>
         <v>840.00000000004775</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="27">
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="23">
         <f>F86* (1/5280) * (3600)</f>
         <v>572.72727272730526</v>
       </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="22">
+      <c r="A87" s="27"/>
+      <c r="B87" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="18">
         <v>330</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="22">
+      <c r="D87" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="18">
         <v>36.1</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22">
         <f>(C87-C86)/(E87-E86)</f>
         <v>899.99999999998727</v>
       </c>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="27">
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23">
         <f>G87* (1/5280) * (3600)</f>
         <v>613.63636363635499</v>
       </c>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
     </row>
     <row r="88" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="22">
+      <c r="A88" s="27"/>
+      <c r="B88" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="18">
         <v>660</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="22">
+      <c r="D88" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="18">
         <v>36.299999999999997</v>
       </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22">
         <f>(C88-C87)/(E88-E87)</f>
         <v>1650.0000000000352</v>
       </c>
-      <c r="I88" s="26"/>
-      <c r="J88" s="27">
+      <c r="I88" s="22"/>
+      <c r="J88" s="23">
         <f>H88* (1/5280) * (3600)</f>
         <v>1125.0000000000239</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="24">
         <v>278.45999999999998</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="24">
         <v>203.43</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="22">
+      <c r="A89" s="27"/>
+      <c r="B89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="18">
         <v>1000</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="22">
+      <c r="D89" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="18">
         <v>37.1</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26">
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22">
         <f>(C89-C88)/(E89-E88)</f>
         <v>424.99999999999773</v>
       </c>
-      <c r="J89" s="27">
+      <c r="J89" s="23">
         <f>I89* (1/5280) * (3600)</f>
         <v>289.77272727272572</v>
       </c>
-      <c r="K89" s="28">
+      <c r="K89" s="24">
         <v>317.72000000000003</v>
       </c>
-      <c r="L89" s="28">
+      <c r="L89" s="24">
         <v>183.94</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="F93" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L93" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="10" t="s">
+      <c r="H94" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J94" s="30"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+    </row>
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="18">
+        <v>0</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="18">
+        <v>15.5</v>
+      </c>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" s="11"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-    </row>
-    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="22">
+      <c r="C96" s="18">
         <v>0</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D96" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+    </row>
+    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+    </row>
+    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="18">
+        <v>60</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E98" s="18">
         <v>15.5</v>
       </c>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L95" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="22">
-        <v>0</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-    </row>
-    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
-    </row>
-    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="22">
-        <v>60</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="22">
-        <v>15.5</v>
-      </c>
-      <c r="F98" s="25">
+      <c r="F98" s="21">
         <f>(C98-C97)/(E98-E97)</f>
         <v>840.00000000000296</v>
       </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27">
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="23">
         <f>F98* (1/5280) * (3600)</f>
         <v>572.72727272727468</v>
       </c>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
     </row>
     <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="22">
+      <c r="A99" s="27"/>
+      <c r="B99" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="18">
         <v>330</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="22">
+      <c r="D99" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="18">
         <v>15.9</v>
       </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22">
         <f>(C99-C98)/(E99-E98)</f>
         <v>674.99999999999943</v>
       </c>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="27">
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="23">
         <f>G99* (1/5280) * (3600)</f>
         <v>460.22727272727229</v>
       </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="22">
+      <c r="A100" s="27"/>
+      <c r="B100" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="18">
         <v>660</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="22">
+      <c r="D100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="18">
         <v>16.2</v>
       </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26">
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22">
         <f>(C100-C99)/(E100-E99)</f>
         <v>1100.0000000000039</v>
       </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="27">
+      <c r="I100" s="22"/>
+      <c r="J100" s="23">
         <f>H100* (1/5280) * (3600)</f>
         <v>750.00000000000261</v>
       </c>
-      <c r="K100" s="28">
+      <c r="K100" s="24">
         <v>278.45999999999998</v>
       </c>
-      <c r="L100" s="28">
+      <c r="L100" s="24">
         <v>203.43</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22">
+      <c r="A101" s="27"/>
+      <c r="B101" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="18">
         <v>1000</v>
       </c>
-      <c r="D101" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="22">
+      <c r="D101" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="18">
         <v>18.100000000000001</v>
       </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26">
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22">
         <f>(C101-C100)/(E101-E100)</f>
         <v>178.94736842105243</v>
       </c>
-      <c r="J101" s="27">
+      <c r="J101" s="23">
         <f>I101* (1/5280) * (3600)</f>
         <v>122.0095693779903</v>
       </c>
-      <c r="K101" s="28">
+      <c r="K101" s="24">
         <v>317.72000000000003</v>
       </c>
-      <c r="L101" s="28">
+      <c r="L101" s="24">
         <v>183.94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:J94"/>
+  <mergeCells count="48">
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="N40:N48"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
     <mergeCell ref="K69:K70"/>
     <mergeCell ref="L69:L70"/>
     <mergeCell ref="A81:A89"/>
@@ -2740,22 +3009,14 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:I69"/>
     <mergeCell ref="J69:J70"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE6656B-A301-0A47-90FC-D89C4FEEFF4C}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="L26" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2776,79 +3037,176 @@
     <col min="10" max="10" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="44" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="27"/>
+      <c r="N4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="27"/>
+      <c r="N5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2857,10 +3215,30 @@
       <c r="E6">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="27"/>
+      <c r="N6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="18">
+        <v>-24</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -2877,10 +3255,36 @@
         <f>F7* (1/5280) * (3600)</f>
         <v>409.09090909093237</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="27"/>
+      <c r="N7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="18">
+        <v>60</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R7" s="21">
+        <f>(O7-O6)/(Q7-Q6)</f>
+        <v>840.00000000004775</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="25">
+        <f>R7* (1/5280) * (3600)</f>
+        <v>572.72727272730526</v>
+      </c>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>330</v>
@@ -2897,10 +3301,36 @@
         <f>G8* (1/5280) * (3600)</f>
         <v>920.45454545453242</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="27"/>
+      <c r="N8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="18">
+        <v>330</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>36</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22">
+        <f>(O8-O7)/(Q8-Q7)</f>
+        <v>1349.9999999999809</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="25">
+        <f>S8* (1/5280) * (3600)</f>
+        <v>920.45454545453242</v>
+      </c>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>660</v>
@@ -2923,10 +3353,40 @@
       <c r="L9">
         <v>289.14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="27"/>
+      <c r="N9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>660</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>36.4</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22">
+        <f>(O9-O8)/(Q9-Q8)</f>
+        <v>825.00000000000296</v>
+      </c>
+      <c r="U9" s="22"/>
+      <c r="V9" s="25">
+        <f>T9* (1/5280) * (3600)</f>
+        <v>562.50000000000205</v>
+      </c>
+      <c r="W9" s="18">
+        <v>287.72000000000003</v>
+      </c>
+      <c r="X9" s="18">
+        <v>288.14999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -2949,75 +3409,105 @@
       <c r="L10">
         <v>328.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="27"/>
+      <c r="N10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>37</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="25">
+        <f>(O10-O9)/(Q10-Q9)</f>
+        <v>566.66666666666538</v>
+      </c>
+      <c r="V10" s="25">
+        <f>U10* (1/5280) * (3600)</f>
+        <v>386.36363636363552</v>
+      </c>
+      <c r="W10" s="18">
+        <v>325.06</v>
+      </c>
+      <c r="X10" s="18">
+        <v>323.35000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>22.9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>22.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>22.9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>23</v>
@@ -3033,7 +3523,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>330</v>
@@ -3052,7 +3542,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>660</v>
@@ -3075,12 +3565,12 @@
         <v>240.89</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -3103,41 +3593,41 @@
         <v>249.53</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
       <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>18.8</v>
@@ -3145,10 +3635,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>18.8</v>
@@ -3156,13 +3646,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>18.8</v>
@@ -3170,7 +3660,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -3189,7 +3679,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>330</v>
@@ -3208,7 +3698,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>660</v>
@@ -3231,12 +3721,12 @@
         <v>287.66000000000003</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1000</v>
@@ -3259,41 +3749,41 @@
         <v>322.11</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
       </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
       <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
         <v>29</v>
       </c>
-      <c r="I30" t="s">
-        <v>30</v>
-      </c>
       <c r="J30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>51.6</v>
@@ -3301,15 +3791,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>51.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3318,9 +3808,9 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -3337,9 +3827,9 @@
         <v>409.09090909090327</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>330</v>
@@ -3356,9 +3846,9 @@
         <v>613.63636363636954</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>660</v>
@@ -3381,12 +3871,12 @@
         <v>290.94</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -3409,42 +3899,116 @@
         <v>329.5</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X39" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y39" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="44" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>48.2</v>
       </c>
       <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" t="s">
         <v>43</v>
       </c>
-      <c r="L40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="27"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="28"/>
+      <c r="S40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" s="30"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+    </row>
+    <row r="41" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="27"/>
+      <c r="O41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y41" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3452,10 +4016,30 @@
       <c r="E42">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="27"/>
+      <c r="O42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" s="18">
+        <v>48.1</v>
+      </c>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+    </row>
+    <row r="43" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -3467,10 +4051,30 @@
         <f>(C43-C42)/(E43-E42)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="27"/>
+      <c r="O43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="18">
+        <v>-24</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+    </row>
+    <row r="44" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>330</v>
@@ -3486,10 +4090,32 @@
         <f>G44*(1/5280)*(3600)</f>
         <v>460.22727272727434</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="27"/>
+      <c r="O44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="18">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="18">
+        <v>48.2</v>
+      </c>
+      <c r="S44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+    </row>
+    <row r="45" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>660</v>
@@ -3508,12 +4134,38 @@
         <v>282.01</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="N45" s="27"/>
+      <c r="O45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="18">
+        <v>330</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="18">
+        <v>48.6</v>
+      </c>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22">
+        <f>(P45-P44)/(R45-R44)</f>
+        <v>675.00000000000239</v>
+      </c>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="25">
+        <f>T45*(1/5280)*(3600)</f>
+        <v>460.22727272727434</v>
+      </c>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+    </row>
+    <row r="46" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1000</v>
@@ -3536,250 +4188,312 @@
         <v>328.46</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="27"/>
+      <c r="O46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="18">
+        <v>660</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22">
+        <f>(P46-P45)/(R46-R45)</f>
+        <v>3299.9999999999532</v>
+      </c>
+      <c r="V46" s="22"/>
+      <c r="W46" s="25">
+        <f>U46*5*(1/5280)*(3600)</f>
+        <v>11249.999999999842</v>
+      </c>
+      <c r="X46" s="24">
+        <v>274.05</v>
+      </c>
+      <c r="Y46" s="24">
+        <v>289.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+      <c r="N47" s="27"/>
+      <c r="O47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="25">
+        <f>(P47-P46)/(R47-R46)</f>
+        <v>850.00000000000307</v>
+      </c>
+      <c r="W47" s="25">
+        <f>V47*(1/5280)*(3600)</f>
+        <v>579.54545454545666</v>
+      </c>
+      <c r="X47" s="24">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="Y47" s="24">
+        <v>323.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="F48" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10" t="s">
+      <c r="H49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="22">
+      <c r="C51" s="18">
         <v>0</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="18">
+        <v>51.1</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="18">
+        <v>60</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="22">
-        <v>51.2</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="22">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="22">
-        <v>51.2</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-    </row>
-    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="22">
-        <v>51.1</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-    </row>
-    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="22">
-        <v>60</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="E53" s="18">
         <v>51.4</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="21">
         <f>(C53-C52)/(E53-E52)</f>
         <v>280.00000000000267</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="27">
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23">
         <f>F53* (1/5280) * (3600)</f>
         <v>190.90909090909273</v>
       </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="22">
+      <c r="A54" s="27"/>
+      <c r="B54" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="18">
         <v>330</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="D54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="18">
         <v>52</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22">
         <f>(C54-C53)/(E54-E53)</f>
         <v>449.99999999999892</v>
       </c>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="27">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23">
         <f>G54* (1/5280) * (3600)</f>
         <v>306.81818181818107</v>
       </c>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
     </row>
     <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="22">
+      <c r="A55" s="27"/>
+      <c r="B55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="18">
         <v>660</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="D55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="18">
         <v>52.5</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22">
         <f>(C55-C54)/(E55-E54)</f>
         <v>660</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27">
+      <c r="I55" s="22"/>
+      <c r="J55" s="23">
         <f>H55* (1/5280) * (3600)</f>
         <v>450</v>
       </c>
-      <c r="K55" s="28">
+      <c r="K55" s="24">
         <v>274.05</v>
       </c>
-      <c r="L55" s="28">
+      <c r="L55" s="24">
         <v>289.38</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="22">
+      <c r="A56" s="27"/>
+      <c r="B56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="18">
         <v>1000</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="D56" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="18">
         <v>53.5</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="29">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="25">
         <f>(C56-C55)/(E56-E55)</f>
         <v>340</v>
       </c>
-      <c r="J56" s="27">
+      <c r="J56" s="23">
         <f>I56* (1/5280) * (3600)</f>
         <v>231.81818181818181</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="24">
         <v>312.35000000000002</v>
       </c>
-      <c r="L56" s="28">
+      <c r="L56" s="24">
         <v>323.5</v>
       </c>
     </row>
@@ -3797,13 +4511,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J62"/>
     </row>
@@ -3811,246 +4525,246 @@
       <c r="J63"/>
     </row>
     <row r="64" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="F64" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="28"/>
+      <c r="F65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10" t="s">
+      <c r="H65" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="18">
+        <v>0</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="22">
+      <c r="C67" s="18">
         <v>0</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+    </row>
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="18">
+        <v>60</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="22">
-        <v>0</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-    </row>
-    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="22">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-    </row>
-    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="22">
-        <v>60</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="22">
+      <c r="E69" s="18">
         <v>35.799999999999997</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="21">
         <f>(C69-C68)/(E69-E68)</f>
         <v>840.00000000004775</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="27">
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23">
         <f>F69* (1/5280) * (3600)</f>
         <v>572.72727272730526</v>
       </c>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="22">
+      <c r="A70" s="27"/>
+      <c r="B70" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="18">
         <v>330</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="22">
+      <c r="D70" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="18">
         <v>36.1</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22">
         <f>(C70-C69)/(E70-E69)</f>
         <v>899.99999999998727</v>
       </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="27">
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
         <f>G70* (1/5280) * (3600)</f>
         <v>613.63636363635499</v>
       </c>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="22">
+      <c r="A71" s="27"/>
+      <c r="B71" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="18">
         <v>660</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="22">
+      <c r="D71" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="18">
         <v>36.299999999999997</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22">
         <f>(C71-C70)/(E71-E70)</f>
         <v>1650.0000000000352</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="27">
+      <c r="I71" s="22"/>
+      <c r="J71" s="23">
         <f>H71* (1/5280) * (3600)</f>
         <v>1125.0000000000239</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K71" s="24">
         <v>287.72000000000003</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L71" s="24">
         <v>288.14999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22">
+      <c r="A72" s="27"/>
+      <c r="B72" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="18">
         <v>1000</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="22">
+      <c r="D72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="18">
         <v>37</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="29">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="25">
         <f>(C72-C71)/(E72-E71)</f>
         <v>485.71428571428373</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="23">
         <f>I72* (1/5280) * (3600)</f>
         <v>331.1688311688298</v>
       </c>
-      <c r="K72" s="28">
+      <c r="K72" s="24">
         <v>325.06</v>
       </c>
-      <c r="L72" s="28">
+      <c r="L72" s="24">
         <v>323.35000000000002</v>
       </c>
     </row>
@@ -4059,257 +4773,257 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75"/>
     </row>
     <row r="76" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="F76" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="28"/>
+      <c r="F77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="10" t="s">
+      <c r="H77" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" s="30"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+    </row>
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="18">
+        <v>0</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="22">
+      <c r="C79" s="18">
         <v>0</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D79" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+    </row>
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+    </row>
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="18">
+        <v>60</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L78" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="22">
-        <v>0</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-    </row>
-    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-    </row>
-    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="22">
-        <v>60</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="22">
+      <c r="E81" s="18">
         <v>15.5</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="21">
         <f>(C81-C80)/(E81-E80)</f>
         <v>840.00000000000296</v>
       </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="27">
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="23">
         <f>F81* (1/5280) * (3600)</f>
         <v>572.72727272727468</v>
       </c>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
     </row>
     <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="22">
+      <c r="A82" s="27"/>
+      <c r="B82" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="18">
         <v>330</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="22">
+      <c r="D82" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="18">
         <v>15.8</v>
       </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22">
         <f>(C82-C81)/(E82-E81)</f>
         <v>899.99999999999784</v>
       </c>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="27">
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="23">
         <f>G82* (1/5280) * (3600)</f>
         <v>613.63636363636215</v>
       </c>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="22">
+      <c r="A83" s="27"/>
+      <c r="B83" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="18">
         <v>660</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="22">
+      <c r="D83" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="18">
         <v>16.2</v>
       </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22">
         <f>(C83-C82)/(E83-E82)</f>
         <v>825.00000000000296</v>
       </c>
-      <c r="I83" s="26"/>
-      <c r="J83" s="27">
+      <c r="I83" s="22"/>
+      <c r="J83" s="23">
         <f>H83* (1/5280) * (3600)</f>
         <v>562.50000000000205</v>
       </c>
-      <c r="K83" s="28">
+      <c r="K83" s="24">
         <v>278.45999999999998</v>
       </c>
-      <c r="L83" s="28">
+      <c r="L83" s="24">
         <v>203.43</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="22">
+      <c r="A84" s="27"/>
+      <c r="B84" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="18">
         <v>1000</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="22">
+      <c r="D84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="18">
         <v>16.8</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="29">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="25">
         <f>(C84-C83)/(E84-E83)</f>
         <v>566.66666666666538</v>
       </c>
-      <c r="J84" s="27">
+      <c r="J84" s="23">
         <f>I84* (1/5280) * (3600)</f>
         <v>386.36363636363552</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="24">
         <v>317.72000000000003</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="24">
         <v>183.94</v>
       </c>
     </row>
@@ -4318,262 +5032,294 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J86"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J87"/>
     </row>
     <row r="88" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="F88" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="44" x14ac:dyDescent="0.2">
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="44" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="10" t="s">
+      <c r="H89" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J89" s="30"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="18">
+        <v>0</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="18">
+        <v>15.5</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J89" s="11"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-    </row>
-    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="22">
+      <c r="C91" s="18">
         <v>0</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+    </row>
+    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="18">
+        <v>-24</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+    </row>
+    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="18">
+        <v>60</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E93" s="18">
         <v>15.5</v>
       </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L90" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="22">
-        <v>0</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-    </row>
-    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="22">
-        <v>-24</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="22">
-        <v>15.4</v>
-      </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-    </row>
-    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="22">
-        <v>60</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="22">
-        <v>15.5</v>
-      </c>
-      <c r="F93" s="25">
+      <c r="F93" s="21">
         <f>(C93-C92)/(E93-E92)</f>
         <v>840.00000000000296</v>
       </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="27">
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23">
         <f>F93* (1/5280) * (3600)</f>
         <v>572.72727272727468</v>
       </c>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
     </row>
     <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="22">
+      <c r="A94" s="27"/>
+      <c r="B94" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="18">
         <v>330</v>
       </c>
-      <c r="D94" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="22">
+      <c r="D94" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="18">
         <v>15.9</v>
       </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26">
+      <c r="F94" s="22"/>
+      <c r="G94" s="22">
         <f>(C94-C93)/(E94-E93)</f>
         <v>674.99999999999943</v>
       </c>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="27">
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23">
         <f>G94* (1/5280) * (3600)</f>
         <v>460.22727272727229</v>
       </c>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="22">
+      <c r="A95" s="27"/>
+      <c r="B95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="18">
         <v>660</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="22">
+      <c r="D95" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="18">
         <v>16.2</v>
       </c>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26">
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22">
         <f>(C95-C94)/(E95-E94)</f>
         <v>1100.0000000000039</v>
       </c>
-      <c r="I95" s="26"/>
-      <c r="J95" s="27">
+      <c r="I95" s="22"/>
+      <c r="J95" s="23">
         <f>H95* (1/5280) * (3600)</f>
         <v>750.00000000000261</v>
       </c>
-      <c r="K95" s="28">
+      <c r="K95" s="24">
         <v>278.45999999999998</v>
       </c>
-      <c r="L95" s="28">
+      <c r="L95" s="24">
         <v>203.43</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22">
+      <c r="A96" s="27"/>
+      <c r="B96" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="18">
         <v>1000</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="22">
+      <c r="D96" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="18">
         <v>18.100000000000001</v>
       </c>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="29">
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="25">
         <f>(C96-C95)/(E96-E95)</f>
         <v>178.94736842105243</v>
       </c>
-      <c r="J96" s="27">
+      <c r="J96" s="23">
         <f>I96* (1/5280) * (3600)</f>
         <v>122.0095693779903</v>
       </c>
-      <c r="K96" s="28">
+      <c r="K96" s="24">
         <v>317.72000000000003</v>
       </c>
-      <c r="L96" s="28">
+      <c r="L96" s="24">
         <v>183.94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="48">
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="N39:N47"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="M2:M10"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:J49"/>
     <mergeCell ref="K76:K77"/>
     <mergeCell ref="L76:L77"/>
     <mergeCell ref="A88:A96"/>
@@ -4590,22 +5336,6 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
